--- a/biology/Biochimie/Phellandrène_synthase/Phellandrène_synthase.xlsx
+++ b/biology/Biochimie/Phellandrène_synthase/Phellandrène_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phellandr%C3%A8ne_synthase</t>
+          <t>Phellandrène_synthase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phellandrène synthase, appelée en anglais (4S)-β-phellandrene synthase (geranyl-diphosphate-cyclizing), est une lyase qui catalyse la réaction[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phellandrène synthase, appelée en anglais (4S)-β-phellandrene synthase (geranyl-diphosphate-cyclizing), est une lyase qui catalyse la réaction :
 géranyle diphosphate  
         ⇌
     {\displaystyle \rightleftharpoons }
   (4S)-β-phellandrène + pyrophosphate.
-Cette enzyme requiert le cation de manganèse Mn2+ comme cofacteur ; le cation de magnésium Mg2+ n'est pas efficace[2]. Il se forme également du (–)-α-phellandrene[3]. Cette réaction fait intervenir une migration d'hydrure 1,3[4].
+Cette enzyme requiert le cation de manganèse Mn2+ comme cofacteur ; le cation de magnésium Mg2+ n'est pas efficace. Il se forme également du (–)-α-phellandrene. Cette réaction fait intervenir une migration d'hydrure 1,3.
 Il existe également une autre enzyme, appelée phellandrène synthase 1 (EC 4.2.3.51).
 </t>
         </is>
